--- a/dell/x2018-12-6_85625_export.xml_report.xlsx
+++ b/dell/x2018-12-6_85625_export.xml_report.xlsx
@@ -41,7 +41,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>data not found in master, should be golden setting not found</t>
+          <t>data not found in master, should be n/a</t>
         </r>
       </text>
     </comment>
